--- a/Team-Data/2014-15/3-21-2014-15.xlsx
+++ b/Team-Data/2014-15/3-21-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -816,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -962,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
@@ -971,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>12</v>
@@ -986,13 +1053,13 @@
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.426</v>
+        <v>0.418</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O4" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>31.9</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1093,28 +1160,28 @@
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z4" t="n">
         <v>19.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>22</v>
@@ -1126,10 +1193,10 @@
         <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1141,28 +1208,28 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
         <v>22</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>23</v>
       </c>
       <c r="AS4" t="n">
         <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
@@ -1341,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.592</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
         <v>83.09999999999999</v>
@@ -1424,7 +1491,7 @@
         <v>22.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
         <v>19.9</v>
@@ -1454,34 +1521,34 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1535,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -1657,16 +1724,16 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>22</v>
@@ -1705,10 +1772,10 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
         <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.638</v>
+        <v>0.629</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,10 +1843,10 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9.300000000000001</v>
@@ -1788,7 +1855,7 @@
         <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
@@ -1797,22 +1864,22 @@
         <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
@@ -1827,28 +1894,28 @@
         <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1878,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -2030,13 +2097,13 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="n">
         <v>17</v>
       </c>
-      <c r="AI9" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.362</v>
+        <v>0.353</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P10" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.709</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S10" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T10" t="n">
         <v>45.3</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>7.7</v>
@@ -2185,22 +2252,22 @@
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
         <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,10 +2279,10 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2254,13 +2321,13 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2272,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.478</v>
@@ -2331,7 +2398,7 @@
         <v>10.6</v>
       </c>
       <c r="M11" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
         <v>0.393</v>
@@ -2343,7 +2410,7 @@
         <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R11" t="n">
         <v>10.2</v>
@@ -2352,7 +2419,7 @@
         <v>34.2</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U11" t="n">
         <v>27.3</v>
@@ -2370,19 +2437,19 @@
         <v>3.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
         <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -2489,22 +2556,22 @@
         <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.662</v>
+        <v>0.676</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2516,55 +2583,55 @@
         <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2582,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0.435</v>
+        <v>0.441</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>7.1</v>
@@ -2698,37 +2765,37 @@
         <v>20.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
         <v>16.5</v>
       </c>
       <c r="P13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U13" t="n">
         <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y13" t="n">
         <v>4.9</v>
@@ -2737,34 +2804,34 @@
         <v>20.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2779,16 +2846,16 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,16 +3010,16 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.258</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,22 +3207,22 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS15" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -3176,13 +3243,13 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
@@ -3268,10 +3335,10 @@
         <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
@@ -3289,10 +3356,10 @@
         <v>99</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,10 +3377,10 @@
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,22 +3389,22 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3355,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3504,10 +3571,10 @@
         <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3549,7 +3616,7 @@
         <v>26</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3671,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3689,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
@@ -3701,10 +3768,10 @@
         <v>18</v>
       </c>
       <c r="AS18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT18" t="n">
         <v>23</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>22</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3728,10 +3795,10 @@
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3853,13 +3920,13 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
         <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.529</v>
+        <v>0.536</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,49 +4027,49 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O20" t="n">
         <v>16.7</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.763</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,19 +4078,19 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
@@ -4050,37 +4117,37 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR20" t="n">
         <v>9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,7 +4287,7 @@
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4256,13 +4323,13 @@
         <v>18</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4402,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -4420,10 +4487,10 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="n">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4509,16 +4576,16 @@
         <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O23" t="n">
         <v>14.2</v>
@@ -4527,19 +4594,19 @@
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.8</v>
@@ -4548,25 +4615,25 @@
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,13 +4678,13 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
@@ -4626,13 +4693,13 @@
         <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>27</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.529</v>
+        <v>0.522</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.455</v>
@@ -4879,10 +4946,10 @@
         <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O25" t="n">
         <v>16.7</v>
@@ -4891,7 +4958,7 @@
         <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
@@ -4900,7 +4967,7 @@
         <v>32.3</v>
       </c>
       <c r="T25" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
         <v>20.4</v>
@@ -4918,22 +4985,22 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4945,10 +5012,10 @@
         <v>6</v>
       </c>
       <c r="AI25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>12</v>
@@ -4966,13 +5033,13 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR25" t="n">
         <v>13</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
@@ -5002,10 +5069,10 @@
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
         <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
@@ -5106,13 +5173,13 @@
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,10 +5191,10 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
@@ -5136,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5148,13 +5215,13 @@
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F28" t="n">
         <v>25</v>
       </c>
       <c r="G28" t="n">
-        <v>0.627</v>
+        <v>0.632</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,25 +5483,25 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q28" t="n">
         <v>0.775</v>
@@ -5443,16 +5510,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
         <v>7.9</v>
@@ -5461,7 +5528,7 @@
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>19.4</v>
@@ -5476,7 +5543,7 @@
         <v>4.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5485,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5497,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5530,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5667,7 +5734,7 @@
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>13</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
@@ -5715,25 +5782,25 @@
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="n">
         <v>31</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.449</v>
+        <v>0.456</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J30" t="n">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
@@ -5792,7 +5859,7 @@
         <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
         <v>16.7</v>
@@ -5801,16 +5868,16 @@
         <v>23.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
         <v>32</v>
       </c>
       <c r="T30" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
@@ -5831,16 +5898,16 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" t="n">
         <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
@@ -5888,7 +5955,7 @@
         <v>18</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5900,7 +5967,7 @@
         <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>1.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -6037,7 +6104,7 @@
         <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>24</v>
@@ -6088,13 +6155,13 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-21-2014-15</t>
+          <t>2015-03-21</t>
         </is>
       </c>
     </row>
